--- a/contact.xlsx
+++ b/contact.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenevoo\Desktop\Python\whatsappAutomation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenevoo\Desktop\Python\Whatsapp-Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C939DC-B1E7-488A-873D-BFEBF63F9A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA49E69-1C1F-4123-9E8D-CA19848037A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,10 +33,10 @@
     <t>contact</t>
   </si>
   <si>
-    <t>berke</t>
+    <t>berke_aydinli</t>
   </si>
   <si>
-    <t>hasan</t>
+    <t>hasan_eke</t>
   </si>
 </sst>
 </file>
@@ -357,7 +357,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -379,7 +379,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>4664456</v>
+        <v>5437486738</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -387,7 +387,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>5545151</v>
+        <v>5511235471</v>
       </c>
     </row>
   </sheetData>

--- a/contact.xlsx
+++ b/contact.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenevoo\Desktop\Python\Whatsapp-Automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenevoo\Desktop\Python\whatsappAutomation\Whatsapp-Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA49E69-1C1F-4123-9E8D-CA19848037A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC06F5E-0598-4B25-B68A-D0128593EFFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="3">
   <si>
     <t>name</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>berke_aydinli</t>
-  </si>
-  <si>
-    <t>hasan_eke</t>
   </si>
 </sst>
 </file>
@@ -354,10 +351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -379,15 +376,47 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>5437486738</v>
+        <v>5433442173</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>5511235471</v>
+        <v>5433442173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>5433442173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>5433442173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>5433442173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>5433442173</v>
       </c>
     </row>
   </sheetData>

--- a/contact.xlsx
+++ b/contact.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenevoo\Desktop\Python\whatsappAutomation\Whatsapp-Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC06F5E-0598-4B25-B68A-D0128593EFFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88206D63-D4D4-42E1-B8E9-925D168F3247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
   <si>
     <t>name</t>
   </si>
@@ -351,10 +351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -395,30 +395,6 @@
         <v>5433442173</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>5433442173</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>5433442173</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>5433442173</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/contact.xlsx
+++ b/contact.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenevoo\Desktop\Python\whatsappAutomation\Whatsapp-Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88206D63-D4D4-42E1-B8E9-925D168F3247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3612C6C0-13CC-496E-A1C5-0C53A1F5B63B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>name</t>
   </si>
@@ -33,7 +33,13 @@
     <t>contact</t>
   </si>
   <si>
-    <t>berke_aydinli</t>
+    <t>ahmet</t>
+  </si>
+  <si>
+    <t>mehmet</t>
+  </si>
+  <si>
+    <t>hasan</t>
   </si>
 </sst>
 </file>
@@ -354,7 +360,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -381,7 +387,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>5433442173</v>
@@ -389,7 +395,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>5433442173</v>

--- a/contact.xlsx
+++ b/contact.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenevoo\Desktop\Python\whatsappAutomation\Whatsapp-Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3612C6C0-13CC-496E-A1C5-0C53A1F5B63B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD047C8-AB5E-4A2E-91AA-926472CE8BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>name</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>hasan</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -360,7 +363,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -381,24 +384,24 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>5433442173</v>
+      <c r="B2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>5433442173</v>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>5433442173</v>
+      <c r="B4" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
